--- a/Cronograma/Cronograma-Actividades.xlsx
+++ b/Cronograma/Cronograma-Actividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B1D50E-3944-4FC9-83B0-AC905E965A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634E9635-604F-4D49-8FA5-9742F4CDCCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Activity</t>
   </si>
@@ -611,6 +611,66 @@
   </si>
   <si>
     <t>HORAS TRABAJADAS</t>
+  </si>
+  <si>
+    <r>
+      <t>18/10 - 23/10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Propuesta de nuevos cambios.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/10 - 23/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Documentacion de propuestas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>22/10 - 23/10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Revision de propuesta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>23/10 - 23/10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Aceptacion y ejecucion de nuevas propuestas</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -683,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -715,9 +775,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5508007A-8F80-4A7F-BD52-B55F5D6EC2B9}">
-  <dimension ref="C2:K41"/>
+  <dimension ref="C2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1162,7 @@
       <c r="H5" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="7">
         <v>6</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1122,7 +1179,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="12">
+      <c r="I6" s="7">
         <v>6</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -1137,7 +1194,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="12">
+      <c r="I7" s="7">
         <v>6</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1152,7 +1209,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="12">
+      <c r="I8" s="7">
         <v>6</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -1179,7 +1236,7 @@
       <c r="H9" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="7">
         <v>6</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1196,7 +1253,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="12">
+      <c r="I10" s="7">
         <v>6</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -1211,7 +1268,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="12">
+      <c r="I11" s="7">
         <v>6</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -1226,7 +1283,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="12">
+      <c r="I12" s="7">
         <v>6</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -1241,7 +1298,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="12">
+      <c r="I13" s="7">
         <v>6</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -1256,7 +1313,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="12">
+      <c r="I14" s="7">
         <v>6</v>
       </c>
       <c r="J14" s="5" t="s">
@@ -1271,7 +1328,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="12">
+      <c r="I15" s="7">
         <v>6</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -1286,7 +1343,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="12">
+      <c r="I16" s="7">
         <v>6</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -1301,7 +1358,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="12">
+      <c r="I17" s="7">
         <v>6</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -1316,7 +1373,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="12">
+      <c r="I18" s="7">
         <v>6</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -1331,7 +1388,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="12">
+      <c r="I19" s="7">
         <v>6</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -1346,7 +1403,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="12">
+      <c r="I20" s="7">
         <v>6</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -1361,71 +1418,43 @@
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="12">
-        <v>30</v>
+      <c r="I21" s="7">
+        <v>6</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3">
-        <v>45589</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45589</v>
-      </c>
-      <c r="F22" s="3">
-        <v>45589</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I22" s="12">
-        <v>6</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="10">
-        <v>45590</v>
-      </c>
-      <c r="E23" s="10">
-        <v>45594</v>
-      </c>
-      <c r="F23" s="10">
-        <v>45590</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I23" s="12">
+    <row r="22" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="7">
+        <v>6</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="7">
         <v>6</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="9">
-        <v>18</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="9"/>
@@ -1434,72 +1463,86 @@
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="12">
+      <c r="I24" s="7">
         <v>6</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="12">
+      <c r="I25" s="7">
         <v>6</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="3:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="10">
-        <v>45602</v>
-      </c>
-      <c r="E26" s="10">
-        <v>45604</v>
-      </c>
-      <c r="F26" s="10">
-        <v>45602</v>
-      </c>
-      <c r="G26" s="11">
+    <row r="26" spans="3:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45589</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45589</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45589</v>
+      </c>
+      <c r="G26" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I26" s="12">
-        <v>6</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="I26" s="7">
+        <v>6</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="10">
+        <v>45590</v>
+      </c>
+      <c r="E27" s="10">
+        <v>45594</v>
+      </c>
+      <c r="F27" s="10">
+        <v>45590</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I27" s="7">
+        <v>6</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12">
-        <v>6</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
@@ -1508,70 +1551,70 @@
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="12">
+      <c r="I28" s="7">
         <v>6</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="10">
-        <v>45607</v>
-      </c>
-      <c r="E29" s="10">
-        <v>45615</v>
-      </c>
-      <c r="F29" s="10">
-        <v>45607</v>
-      </c>
-      <c r="G29" s="11">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="7">
+        <v>6</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="3:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="10">
+        <v>45602</v>
+      </c>
+      <c r="E30" s="10">
+        <v>45604</v>
+      </c>
+      <c r="F30" s="10">
+        <v>45602</v>
+      </c>
+      <c r="G30" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H30" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I29" s="12">
-        <v>6</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12">
+      <c r="I30" s="7">
         <v>6</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="K30" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="12">
+      <c r="I31" s="7">
         <v>6</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K31" s="9"/>
     </row>
@@ -1582,41 +1625,55 @@
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="12">
+      <c r="I32" s="7">
         <v>6</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="12">
+    <row r="33" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="10">
+        <v>45607</v>
+      </c>
+      <c r="E33" s="10">
+        <v>45615</v>
+      </c>
+      <c r="F33" s="10">
+        <v>45607</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I33" s="7">
         <v>6</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="K33" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="12">
+      <c r="I34" s="7">
         <v>6</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="K34" s="9"/>
     </row>
@@ -1627,55 +1684,41 @@
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="12">
+      <c r="I35" s="7">
         <v>6</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="10">
-        <v>45616</v>
-      </c>
-      <c r="E36" s="10">
-        <v>45618</v>
-      </c>
-      <c r="F36" s="10">
-        <v>45616</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I36" s="12">
+    <row r="36" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="7">
         <v>6</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="12">
+      <c r="I37" s="7">
         <v>6</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="K37" s="9"/>
     </row>
@@ -1686,129 +1729,203 @@
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="12">
+      <c r="I38" s="7">
         <v>6</v>
       </c>
       <c r="J38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="7">
+        <v>6</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="10">
+        <v>45616</v>
+      </c>
+      <c r="E40" s="10">
+        <v>45618</v>
+      </c>
+      <c r="F40" s="10">
+        <v>45616</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I40" s="7">
+        <v>6</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="7">
+        <v>6</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="7">
+        <v>6</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="7" t="s">
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D43" s="3">
         <v>45621</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E43" s="3">
         <v>45621</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F43" s="3">
         <v>45621</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G43" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H43" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I39" s="12">
-        <v>6</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="I43" s="7">
+        <v>6</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="7" t="s">
+      <c r="K43" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D44" s="3">
         <v>45622</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E44" s="3">
         <v>45622</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F44" s="3">
         <v>45622</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G44" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H44" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I40" s="12">
-        <v>6</v>
-      </c>
-      <c r="J40" s="6" t="s">
+      <c r="I44" s="7">
+        <v>6</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K40" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
+      <c r="K44" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I41">
-        <f>SUM(I5:I40)</f>
+      <c r="I45">
+        <f>SUM(I5:I44)</f>
         <v>240</v>
       </c>
-      <c r="K41">
-        <f>SUM(K5:K40)</f>
+      <c r="K45">
+        <f>SUM(K5:K44)</f>
         <v>240</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="K33:K39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
     <mergeCell ref="K5:K8"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="D9:D21"/>
-    <mergeCell ref="E9:E21"/>
-    <mergeCell ref="F9:F21"/>
-    <mergeCell ref="G9:G21"/>
-    <mergeCell ref="H9:H21"/>
-    <mergeCell ref="K9:K21"/>
+    <mergeCell ref="C9:C25"/>
+    <mergeCell ref="D9:D25"/>
+    <mergeCell ref="E9:E25"/>
+    <mergeCell ref="F9:F25"/>
+    <mergeCell ref="G9:G25"/>
+    <mergeCell ref="H9:H25"/>
+    <mergeCell ref="K9:K25"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="H5:H8"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="K29:K35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="K36:K38"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="H29:H35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
